--- a/data/trans_dic/P79_n_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1720104321057997</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1442002821752158</v>
+        <v>0.1442002821752159</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1565586297549363</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1387608822653409</v>
+        <v>0.1367736085336123</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1176271954130905</v>
+        <v>0.1188390062630081</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1326350217210344</v>
+        <v>0.1345254956720541</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2138685252913059</v>
+        <v>0.2109340867165408</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1775548795196862</v>
+        <v>0.1756724721017492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1806238642733476</v>
+        <v>0.1794035962331701</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05611792633827638</v>
+        <v>0.05611792633827637</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.04969917312441378</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04273091617308048</v>
+        <v>0.04221303899171466</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03774642532824776</v>
+        <v>0.03918913232390031</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04327423276552513</v>
+        <v>0.04440049040307407</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07298297956296571</v>
+        <v>0.07363181752883902</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06167974808558122</v>
+        <v>0.0636201555092254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06219516554538122</v>
+        <v>0.06352115203382799</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.005594380801894747</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.00416454965251977</v>
+        <v>0.004164549652519771</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.004879068408039343</v>
+        <v>0.004879068408039344</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001973137723807573</v>
+        <v>0.001925238868406617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001485398121220548</v>
+        <v>0.001455988198916296</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002345712190746872</v>
+        <v>0.002401825144615339</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01149306834000385</v>
+        <v>0.01104992084148141</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.009632468998102115</v>
+        <v>0.009055546204567621</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.008047344698206395</v>
+        <v>0.008757405427238074</v>
       </c>
     </row>
     <row r="13">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0003729437289983113</v>
+        <v>0.0003730594180011533</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.005873175434390135</v>
+        <v>0.006711489737837391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.005599145673082078</v>
+        <v>0.005581539995311457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0041478038995832</v>
+        <v>0.003805756198741805</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04213472414986981</v>
+        <v>0.0421347241498698</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04089175290193672</v>
+        <v>0.04089175290193674</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.04149452723394042</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03534571331975681</v>
+        <v>0.0351282680865393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03457111962893157</v>
+        <v>0.03565011897119029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03722546920860964</v>
+        <v>0.03687774867382349</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05003348636993987</v>
+        <v>0.05029469403892946</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04735746995227826</v>
+        <v>0.04842604358998303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04658626354550851</v>
+        <v>0.04672137192990972</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>69205</v>
+        <v>68214</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73350</v>
+        <v>74106</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>148859</v>
+        <v>150981</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>106665</v>
+        <v>105201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>110720</v>
+        <v>109546</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>202718</v>
+        <v>201348</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41028</v>
+        <v>40530</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42119</v>
+        <v>43729</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>89837</v>
+        <v>92175</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>70074</v>
+        <v>70697</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68825</v>
+        <v>70990</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129116</v>
+        <v>131869</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2065</v>
+        <v>2015</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1556</v>
+        <v>1525</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4912</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12027</v>
+        <v>11564</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10091</v>
+        <v>9487</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16852</v>
+        <v>18339</v>
       </c>
     </row>
     <row r="16">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5732</v>
+        <v>6550</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5097</v>
+        <v>5081</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7824</v>
+        <v>7179</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>123048</v>
+        <v>122291</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>127824</v>
+        <v>131813</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>267231</v>
+        <v>264734</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>174181</v>
+        <v>175090</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>175100</v>
+        <v>179051</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>334429</v>
+        <v>335399</v>
       </c>
     </row>
     <row r="24">
